--- a/biology/Zoologie/Barzona/Barzona.xlsx
+++ b/biology/Zoologie/Barzona/Barzona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La barzona est une race bovine originaire des États-Unis d'Amérique. Le nom est une contraction de Bard et Arizona.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une race récente créée en 1942 sur le ranch de M. Bard, à partir d'afrikaner, hereford, santa Gertrudis et angus. La proportion de chacune des races est à peu près équivalente. Le but était de créer une race capable de produire plus de viande avec le même nombre d'animaux sur une zone aride aux fourrages grossiers.
 Le croisement a débuté par l'achat de taureaux afrikaner utilisé sur des femelles hereford.
@@ -544,7 +558,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe unie rouge allant de l'acajou sombre presque noir au fauve blond. La majorité étant rouge. La race présente des individus avec ou sans cornes. Elle est de taille moyenne. Les taureaux pèsent de 700 à 800 kg et les vaches de 600 à 650 kg.
 </t>
@@ -575,7 +591,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La barzona est une race créée exclusivement pour la production de viande. Elle donne des animaux aux carcasses bien conformées et à la viande persillée et savoureuse.
 Elle est reconnue pour ses grandes qualités de résistance dans un climat rude :
